--- a/NBA Finals and MVP.xlsx
+++ b/NBA Finals and MVP.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmalherbe\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\OneDrive\桌面\data\13 Class Activities\ETL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1F48A0EC-ECE9-4FBC-80B9-7F4DD8951108}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="10_ncr:100000_{1F48A0EC-ECE9-4FBC-80B9-7F4DD8951108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{57D98F79-8436-4FA6-90BE-FA83758DCAE3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="8080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="630" windowWidth="9710" windowHeight="8870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="137">
   <si>
     <t>Year</t>
   </si>
@@ -53,9 +54,6 @@
     <t>Final Sweep ?</t>
   </si>
   <si>
-    <t>MVP Name</t>
-  </si>
-  <si>
     <t>MVP Height (m)</t>
   </si>
   <si>
@@ -113,9 +111,6 @@
     <t>1–4</t>
   </si>
   <si>
-    <t>B. Pettit</t>
-  </si>
-  <si>
     <t>Forward</t>
   </si>
   <si>
@@ -134,18 +129,12 @@
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>B. Cousy</t>
-  </si>
-  <si>
     <t>Guard</t>
   </si>
   <si>
     <t>Champion</t>
   </si>
   <si>
-    <t>B. Russell</t>
-  </si>
-  <si>
     <t>Center</t>
   </si>
   <si>
@@ -158,9 +147,6 @@
     <t>True</t>
   </si>
   <si>
-    <t>W. Chamberlain</t>
-  </si>
-  <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
@@ -170,45 +156,27 @@
     <t>San Francisco Warriors</t>
   </si>
   <si>
-    <t>O. Robertson</t>
-  </si>
-  <si>
     <t>Cincinnati Royals</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>W. Unseld</t>
-  </si>
-  <si>
     <t>Baltimore Bullets</t>
   </si>
   <si>
-    <t>W. Reed</t>
-  </si>
-  <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>4–0</t>
   </si>
   <si>
-    <t>K. AJabbar</t>
-  </si>
-  <si>
-    <t>D. Cowens</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Washington Bullets</t>
   </si>
   <si>
-    <t>B. McAdoo</t>
-  </si>
-  <si>
     <t>Buffalo Braves</t>
   </si>
   <si>
@@ -218,87 +186,39 @@
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>K. A-Jabbar</t>
-  </si>
-  <si>
     <t>Seattle SuperSonics</t>
   </si>
   <si>
-    <t>B. Walton</t>
-  </si>
-  <si>
-    <t>M. Malone</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>J. Erving</t>
-  </si>
-  <si>
-    <t>L. Bird</t>
-  </si>
-  <si>
-    <t>M. Johnson</t>
-  </si>
-  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>M. Jordan</t>
-  </si>
-  <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
-    <t>C. Barkley</t>
-  </si>
-  <si>
-    <t>H. Olajuwon</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
     <t>Orlando Magic</t>
   </si>
   <si>
-    <t>D. Robinson</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Utah Jazz</t>
   </si>
   <si>
-    <t>K. Malone</t>
-  </si>
-  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>S. O'Neal</t>
-  </si>
-  <si>
-    <t>A. Iverson</t>
-  </si>
-  <si>
     <t>New Jersey Nets</t>
   </si>
   <si>
-    <t>T. Duncan</t>
-  </si>
-  <si>
-    <t>K. Garnett</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
-    <t>S. Nash</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -311,40 +231,217 @@
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>D. Nowitzki</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>K. Bryant</t>
-  </si>
-  <si>
-    <t>L. James</t>
-  </si>
-  <si>
-    <t>D. Rose</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
-    <t>K. Durant</t>
-  </si>
-  <si>
-    <t>S. Curry</t>
-  </si>
-  <si>
     <t>4-2</t>
   </si>
   <si>
-    <t>R. Westbrook</t>
-  </si>
-  <si>
     <t>4-0</t>
   </si>
   <si>
-    <t>J. Harden</t>
+    <t>MVP Last_Name</t>
+  </si>
+  <si>
+    <t>MVP Frist_Name</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Wilt</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Willis</t>
+  </si>
+  <si>
+    <t>Lew</t>
+  </si>
+  <si>
+    <t>Alcindor</t>
+  </si>
+  <si>
+    <t>Kareem</t>
+  </si>
+  <si>
+    <t>Abdul-Jabbar</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>Julius</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>Shaquille</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Dirk</t>
+  </si>
+  <si>
+    <t>Kobe</t>
+  </si>
+  <si>
+    <t>Lebron</t>
+  </si>
+  <si>
+    <t>Derrick</t>
+  </si>
+  <si>
+    <t>LeBron</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harden</t>
+  </si>
+  <si>
+    <t>Westbrook</t>
+  </si>
+  <si>
+    <t>Curry</t>
+  </si>
+  <si>
+    <t>Durant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rose</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nowitzki</t>
+  </si>
+  <si>
+    <t>Nash</t>
+  </si>
+  <si>
+    <t>Garnett</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Iverson</t>
+  </si>
+  <si>
+    <t>O'Neal</t>
+  </si>
+  <si>
+    <t>Malone</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malone</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>Olajuwon</t>
+  </si>
+  <si>
+    <t>Barkley</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>Erving</t>
+  </si>
+  <si>
+    <t>AJabbar</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>Pettit</t>
+  </si>
+  <si>
+    <t>Cousy</t>
+  </si>
+  <si>
+    <t>Chamberlain</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>Unseld</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>Cowens</t>
+  </si>
+  <si>
+    <t>McAdoo</t>
+  </si>
+  <si>
+    <t>A-Jabbar</t>
   </si>
 </sst>
 </file>
@@ -436,7 +533,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -755,16 +852,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:N70"/>
+      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1796875" customWidth="1"/>
@@ -773,16 +870,17 @@
     <col min="5" max="5" width="22.1796875" customWidth="1"/>
     <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.26953125" customWidth="1"/>
-    <col min="13" max="13" width="18.1796875" customWidth="1"/>
-    <col min="14" max="14" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.26953125" customWidth="1"/>
+    <col min="14" max="14" width="18.1796875" customWidth="1"/>
+    <col min="15" max="15" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,3124 +903,3339 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1950</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1951</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1952</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1953</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1954</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1955</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1956</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="K8" s="4">
+        <f>J8*3.28084</f>
+        <v>6.7585303999999997</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="3">
-        <v>2.06</v>
-      </c>
-      <c r="J8" s="4">
-        <f>I8*3.28084</f>
-        <v>6.7585303999999997</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="N8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1957</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" ref="K9:K69" si="0">J9*3.28084</f>
+        <v>6.0695540000000001</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="M9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1.85</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" ref="J9:J69" si="0">I9*3.28084</f>
-        <v>6.0695540000000001</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1958</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="3">
+        <v>73</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="3">
         <v>2.08</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>6.8241472000000005</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1959</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7585303999999997</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="3">
-        <v>2.06</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7585303999999997</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="N11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>1960</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0866144000000002</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2.16</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0866144000000002</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="N12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>1961</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8241472000000005</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2.08</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>6.8241472000000005</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>1962</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8241472000000005</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2.08</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>6.8241472000000005</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>1963</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8241472000000005</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2.08</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>6.8241472000000005</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>1964</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="3">
+        <v>75</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="3">
         <v>1.96</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
         <v>6.4304464000000001</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>1965</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8241472000000005</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2.08</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>6.8241472000000005</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>1966</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0866144000000002</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="3">
-        <v>2.16</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0866144000000002</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="N18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>1967</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0866144000000002</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="3">
-        <v>2.16</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0866144000000002</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="N19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>1968</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0866144000000002</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="3">
-        <v>2.16</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0866144000000002</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="N20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>1969</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
+        <v>6.5944883999999995</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>6.5944883999999995</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="N21" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>1970</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="3">
+        <v>77</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" s="3">
         <v>2.06</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
         <v>6.7585303999999997</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L22" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>1971</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="3">
+        <v>78</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="3">
         <v>2.1800000000000002</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <f t="shared" si="0"/>
         <v>7.1522312000000001</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L23" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>1972</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="3">
+        <v>80</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="3">
         <v>2.1800000000000002</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <f t="shared" si="0"/>
         <v>7.1522312000000001</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L24" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>1973</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="3">
+        <v>82</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" s="3">
         <v>2.06</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <f t="shared" si="0"/>
         <v>6.7585303999999997</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L25" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>1974</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="3">
+        <v>80</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="3">
         <v>2.1800000000000002</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <f t="shared" si="0"/>
         <v>7.1522312000000001</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L26" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>1975</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="3">
+        <v>72</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J27" s="3">
         <v>2.06</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="4">
         <f t="shared" si="0"/>
         <v>6.7585303999999997</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L27" s="3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>1976</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" s="3">
+        <v>80</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" s="3">
         <v>2.1800000000000002</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <f t="shared" si="0"/>
         <v>7.1522312000000001</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L28" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>1977</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="3">
+        <v>80</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="3">
         <v>2.1800000000000002</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <f t="shared" si="0"/>
         <v>7.1522312000000001</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L29" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>1978</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="3">
+        <v>73</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="3">
         <v>2.11</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <f t="shared" si="0"/>
         <v>6.9225724</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L30" s="3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>1979</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="3">
+        <v>83</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="3">
         <v>2.08</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <f t="shared" si="0"/>
         <v>6.8241472000000005</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L31" s="3" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>1980</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="3">
+        <v>80</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" s="3">
         <v>2.1800000000000002</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <f t="shared" si="0"/>
         <v>7.1522312000000001</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L32" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>1981</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33" s="3">
+        <v>84</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="3">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <f t="shared" si="0"/>
         <v>6.5944883999999995</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="L33" s="3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>1982</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="3">
+        <v>83</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="3">
         <v>2.08</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <f t="shared" si="0"/>
         <v>6.8241472000000005</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L34" s="3" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>1983</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" s="3">
+        <v>83</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="3">
         <v>2.08</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <f t="shared" si="0"/>
         <v>6.8241472000000005</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L35" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>1984</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7585303999999997</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" s="3">
-        <v>2.06</v>
-      </c>
-      <c r="J36" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7585303999999997</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>1985</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I37" s="3">
+        <v>85</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J37" s="3">
         <v>2.06</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <f t="shared" si="0"/>
         <v>6.7585303999999997</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="L37" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>1986</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7585303999999997</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="3">
-        <v>2.06</v>
-      </c>
-      <c r="J38" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7585303999999997</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>1987</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J39" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7585303999999997</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I39" s="3">
-        <v>2.06</v>
-      </c>
-      <c r="J39" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7585303999999997</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>1988</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I40" s="3">
+        <v>87</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" s="3">
         <v>1.98</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <f t="shared" si="0"/>
         <v>6.4960632</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L40" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>1989</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I41" s="3">
+        <v>86</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J41" s="3">
         <v>2.06</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <f t="shared" si="0"/>
         <v>6.7585303999999997</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>1990</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="3">
+        <v>86</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J42" s="3">
         <v>2.06</v>
       </c>
-      <c r="J42" s="4">
+      <c r="K42" s="4">
         <f t="shared" si="0"/>
         <v>6.7585303999999997</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L42" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>1991</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I43" s="3">
+        <v>87</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J43" s="3">
         <v>1.98</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <f t="shared" si="0"/>
         <v>6.4960632</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L43" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>1992</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I44" s="3">
+        <v>87</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J44" s="3">
         <v>1.98</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <f t="shared" si="0"/>
         <v>6.4960632</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L44" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>1993</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I45" s="3">
+        <v>88</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J45" s="3">
         <v>1.98</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <f t="shared" si="0"/>
         <v>6.4960632</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="L45" s="3" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>1994</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E46" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I46" s="3">
+        <v>89</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J46" s="3">
         <v>2.13</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <f t="shared" si="0"/>
         <v>6.9881891999999999</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L46" s="3" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>1995</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I47" s="3">
+        <v>90</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J47" s="3">
         <v>2.16</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <f t="shared" si="0"/>
         <v>7.0866144000000002</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L47" s="3" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>1996</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I48" s="3">
+        <v>87</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J48" s="3">
         <v>1.98</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K48" s="4">
         <f t="shared" si="0"/>
         <v>6.4960632</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L48" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>1997</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I49" s="3">
+        <v>91</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J49" s="3">
         <v>2.06</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <f t="shared" si="0"/>
         <v>6.7585303999999997</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="L49" s="3" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>1998</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I50" s="3">
+        <v>87</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J50" s="3">
         <v>1.98</v>
       </c>
-      <c r="J50" s="4">
+      <c r="K50" s="4">
         <f t="shared" si="0"/>
         <v>6.4960632</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L50" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>1999</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I51" s="3">
+        <v>91</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J51" s="3">
         <v>2.06</v>
       </c>
-      <c r="J51" s="4">
+      <c r="K51" s="4">
         <f t="shared" si="0"/>
         <v>6.7585303999999997</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="L51" s="3" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>2000</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I52" s="3">
+        <v>92</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J52" s="3">
         <v>2.16</v>
       </c>
-      <c r="J52" s="4">
+      <c r="K52" s="4">
         <f t="shared" si="0"/>
         <v>7.0866144000000002</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L52" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>2001</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I53" s="3">
+        <v>93</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J53" s="3">
         <v>1.83</v>
       </c>
-      <c r="J53" s="4">
+      <c r="K53" s="4">
         <f t="shared" si="0"/>
         <v>6.0039372000000002</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="L53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O53" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>2002</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I54" s="3">
+        <v>94</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J54" s="3">
         <v>2.11</v>
       </c>
-      <c r="J54" s="4">
+      <c r="K54" s="4">
         <f t="shared" si="0"/>
         <v>6.9225724</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="L54" s="3" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>2003</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I55" s="3">
+        <v>94</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J55" s="3">
         <v>2.11</v>
       </c>
-      <c r="J55" s="4">
+      <c r="K55" s="4">
         <f t="shared" si="0"/>
         <v>6.9225724</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="L55" s="3" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>2004</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J56" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9225724</v>
+      </c>
+      <c r="L56" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I56" s="3">
-        <v>2.11</v>
-      </c>
-      <c r="J56" s="4">
-        <f t="shared" si="0"/>
-        <v>6.9225724</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="M56" s="3" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>2005</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I57" s="3">
+        <v>96</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J57" s="3">
         <v>1.91</v>
       </c>
-      <c r="J57" s="4">
+      <c r="K57" s="4">
         <f t="shared" si="0"/>
         <v>6.2664043999999999</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L57" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>2006</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I58" s="3">
+        <v>96</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J58" s="3">
         <v>1.91</v>
       </c>
-      <c r="J58" s="4">
+      <c r="K58" s="4">
         <f t="shared" si="0"/>
         <v>6.2664043999999999</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L58" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>2007</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I59" s="3">
+        <v>97</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J59" s="3">
         <v>2.13</v>
       </c>
-      <c r="J59" s="4">
+      <c r="K59" s="4">
         <f t="shared" si="0"/>
         <v>6.9881891999999999</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="L59" s="3" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>2008</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I60" s="3">
+        <v>98</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J60" s="3">
         <v>1.98</v>
       </c>
-      <c r="J60" s="4">
+      <c r="K60" s="4">
         <f t="shared" si="0"/>
         <v>6.4960632</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="L60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>2009</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I61" s="3">
+        <v>99</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J61" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J61" s="4">
+      <c r="K61" s="4">
         <f t="shared" si="0"/>
         <v>6.6601051999999994</v>
       </c>
-      <c r="K61" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="L61" s="3" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>2010</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I62" s="3">
+        <v>99</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J62" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J62" s="4">
+      <c r="K62" s="4">
         <f t="shared" si="0"/>
         <v>6.6601051999999994</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="L62" s="3" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>2011</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I63" s="3">
+        <v>100</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J63" s="3">
         <v>1.91</v>
       </c>
-      <c r="J63" s="4">
+      <c r="K63" s="4">
         <f t="shared" si="0"/>
         <v>6.2664043999999999</v>
       </c>
-      <c r="K63" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L63" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>2012</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J64" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6601051999999994</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I64" s="3">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="J64" s="4">
-        <f t="shared" si="0"/>
-        <v>6.6601051999999994</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M64" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>2013</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I65" s="3">
+        <v>101</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J65" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J65" s="4">
+      <c r="K65" s="4">
         <f t="shared" si="0"/>
         <v>6.6601051999999994</v>
       </c>
-      <c r="K65" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="L65" s="3" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>2014</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I66" s="3">
+        <v>95</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J66" s="3">
         <v>2.06</v>
       </c>
-      <c r="J66" s="4">
+      <c r="K66" s="4">
         <f t="shared" si="0"/>
         <v>6.7585303999999997</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="L66" s="3" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>2015</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I67" s="3">
+        <v>102</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J67" s="3">
         <v>1.91</v>
       </c>
-      <c r="J67" s="4">
+      <c r="K67" s="4">
         <f t="shared" si="0"/>
         <v>6.2664043999999999</v>
       </c>
-      <c r="K67" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L67" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>2016</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I68" s="3">
+        <v>102</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J68" s="3">
         <v>1.91</v>
       </c>
-      <c r="J68" s="4">
+      <c r="K68" s="4">
         <f t="shared" si="0"/>
         <v>6.2664043999999999</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="L68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O68" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L68" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>2017</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I69" s="3">
+        <v>103</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J69" s="3">
         <v>1.91</v>
       </c>
-      <c r="J69" s="4">
+      <c r="K69" s="4">
         <f t="shared" si="0"/>
         <v>6.2664043999999999</v>
       </c>
-      <c r="K69" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L69" s="3" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>2018</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J70" s="3">
         <v>1.96</v>
       </c>
-      <c r="J70" s="4">
+      <c r="K70" s="4">
         <v>6.5</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L70" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
